--- a/Sarkadi Kristóf Stefán/testeles/TeszteljükLe.xlsx
+++ b/Sarkadi Kristóf Stefán/testeles/TeszteljükLe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarkadiKristofStefan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarkadiKristofStefan\Desktop\sar.kri.ste\KA_12D.github.io\Sarkadi Kristóf Stefán\testeles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68705CF-3E02-40F0-A19A-173C248DBDBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C9594-1138-41D8-A468-9679BF3A53CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,21 +960,6 @@
  Test metrics</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/11n4yVupXFWHNZexxDonNyRLqQ_JhPXRr/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OzfVYpTQsEZsgP0gKsMgiuua0V2swb0a/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12SOMgthF9qGa5ZWmzlSK1aN9dbm3ppjz/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1P9FyuLFQd79mo4R6I0idIDC_LXqGa56N/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1bIg12YPI6lblshiqtTBh1yQpOTQ4BKXd/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>shadow.koxy@gmail.com</t>
   </si>
   <si>
@@ -985,6 +970,21 @@
   </si>
   <si>
     <t>Istvántelki út 50.</t>
+  </si>
+  <si>
+    <t>kepek\test1_2023.09.20.png</t>
+  </si>
+  <si>
+    <t>kepek\test2_2023.09.20.png</t>
+  </si>
+  <si>
+    <t>kepek\test3_2023.09.20.png</t>
+  </si>
+  <si>
+    <t>kepek\test4_2023.09.20.png</t>
+  </si>
+  <si>
+    <t>kepek\test5_2023.10.04.png</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1239,6 +1239,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1314,7 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1411,11 +1417,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -2377,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2596,7 +2605,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H8" s="12">
         <v>3</v>
@@ -2622,7 +2631,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H9" s="12">
         <v>1</v>
@@ -2648,7 +2657,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H10" s="12">
         <v>2</v>
@@ -2674,7 +2683,7 @@
         <v>35</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>36</v>
@@ -2700,7 +2709,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>40</v>
@@ -31921,7 +31930,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32080,7 +32089,7 @@
       <c r="F6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="57" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="18" t="s">
@@ -32132,7 +32141,7 @@
       <c r="F8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="57" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="24" t="s">
@@ -32172,7 +32181,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="25" t="s">
@@ -32183,7 +32192,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="25" t="s">
         <v>72</v>
       </c>
@@ -32192,7 +32201,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="25" t="s">
         <v>74</v>
       </c>
@@ -32201,7 +32210,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="25" t="s">
         <v>76</v>
       </c>
@@ -32210,7 +32219,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="60" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -32221,7 +32230,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="25" t="s">
         <v>81</v>
       </c>
@@ -32230,7 +32239,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="25" t="s">
         <v>83</v>
       </c>
@@ -32239,7 +32248,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="60" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -32250,7 +32259,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="25" t="s">
         <v>88</v>
       </c>
@@ -32259,7 +32268,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="60" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -32270,35 +32279,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="30"/>
       <c r="C11" s="26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="30"/>
       <c r="C12" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="30"/>
       <c r="C13" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="30"/>
       <c r="C14" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="25" t="s">
         <v>7</v>
       </c>
@@ -32307,7 +32316,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="25" t="s">
         <v>98</v>
       </c>
@@ -32316,7 +32325,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="25" t="s">
         <v>2</v>
       </c>
@@ -33254,7 +33263,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33295,13 +33304,13 @@
       <c r="C2" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="63" t="s">
         <v>203</v>
       </c>
     </row>
@@ -33315,13 +33324,13 @@
       <c r="C3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="63" t="s">
         <v>205</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -33338,13 +33347,13 @@
       <c r="C4" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="63" t="s">
         <v>205</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -33361,13 +33370,13 @@
       <c r="C5" s="46">
         <v>1</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="59">
         <v>301234567</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="63">
         <v>909999999</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="63" t="s">
         <v>207</v>
       </c>
     </row>
@@ -33381,13 +33390,13 @@
       <c r="C6" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="63" t="s">
         <v>209</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -33404,13 +33413,13 @@
       <c r="C7" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="59">
         <v>1041</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="63">
         <v>9985</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="63" t="s">
         <v>211</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -33427,13 +33436,13 @@
       <c r="C8" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="63" t="s">
         <v>209</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -33450,13 +33459,13 @@
       <c r="C9" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="E9" s="46" t="s">
+      <c r="D9" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="63" t="s">
         <v>209</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -33488,6 +33497,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FF9E1F6A-82EC-43C2-A066-FBEE219BF3DF}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{F3286252-273C-46B5-A989-10C7FBF53925}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
